--- a/Crawling/music/crawled_data/match_artist_agency/artist_agency_20220525.xlsx
+++ b/Crawling/music/crawled_data/match_artist_agency/artist_agency_20220525.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="594">
   <si>
     <t>가수</t>
   </si>
@@ -225,9 +225,6 @@
     <t>원슈타인</t>
   </si>
   <si>
-    <t>개인</t>
-  </si>
-  <si>
     <t>케이시</t>
   </si>
   <si>
@@ -1144,9 +1141,6 @@
   </si>
   <si>
     <t>설운도</t>
-  </si>
-  <si>
-    <t>기개인</t>
   </si>
   <si>
     <t>이치현과 벗님들</t>
@@ -1927,7 +1921,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2004,6 +1998,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2264,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4">
-        <v>44705.0</v>
+        <v>44706.0</v>
       </c>
     </row>
     <row r="2">
@@ -2717,7 +2714,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -2725,10 +2722,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -2736,10 +2733,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -2747,10 +2744,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -2758,10 +2755,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -2769,10 +2766,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -2780,10 +2777,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -2791,10 +2788,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -2803,41 +2800,41 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>5</v>
@@ -2848,7 +2845,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>5</v>
@@ -2859,18 +2856,18 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>15</v>
@@ -2881,7 +2878,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>12</v>
@@ -2893,7 +2890,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>12</v>
@@ -2904,7 +2901,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>12</v>
@@ -2915,7 +2912,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>44</v>
@@ -2926,7 +2923,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>44</v>
@@ -2937,7 +2934,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>44</v>
@@ -2948,7 +2945,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>44</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>15</v>
@@ -2970,7 +2967,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>15</v>
@@ -2981,10 +2978,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -2992,10 +2989,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -3003,10 +3000,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -3014,10 +3011,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -3025,10 +3022,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
@@ -3036,10 +3033,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -3047,10 +3044,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -3058,10 +3055,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -3069,10 +3066,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -3080,10 +3077,10 @@
     </row>
     <row r="74">
       <c r="A74" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>12</v>
@@ -3091,7 +3088,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>58</v>
@@ -3102,10 +3099,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -3113,10 +3110,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -3124,10 +3121,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -3135,10 +3132,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -3146,10 +3143,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -3157,10 +3154,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -3168,10 +3165,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -3179,10 +3176,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -3190,10 +3187,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>44</v>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>44</v>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>44</v>
@@ -3234,10 +3231,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -3245,10 +3242,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -3256,7 +3253,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>44</v>
@@ -3267,10 +3264,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -3278,10 +3275,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -3289,10 +3286,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -3300,10 +3297,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -3311,10 +3308,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -3322,10 +3319,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -3333,10 +3330,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -3344,10 +3341,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
@@ -3356,10 +3353,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -3367,10 +3364,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
@@ -3378,10 +3375,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -3389,10 +3386,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
@@ -3400,10 +3397,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -3412,10 +3409,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -3423,10 +3420,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -3434,10 +3431,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -3445,10 +3442,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -3456,10 +3453,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -3468,7 +3465,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>44</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>44</v>
@@ -3491,10 +3488,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -3503,22 +3500,22 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M112" s="5"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
@@ -3526,10 +3523,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
@@ -3539,7 +3536,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
@@ -3550,10 +3547,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
@@ -3561,21 +3558,21 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
@@ -3583,10 +3580,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -3594,10 +3591,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
@@ -3605,10 +3602,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -3616,10 +3613,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
@@ -3627,10 +3624,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>44</v>
@@ -3650,32 +3647,32 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
@@ -3684,7 +3681,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>5</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>5</v>
@@ -3706,7 +3703,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>44</v>
@@ -3717,7 +3714,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>42</v>
@@ -3728,7 +3725,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>11</v>
@@ -3739,7 +3736,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>11</v>
@@ -3750,10 +3747,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
@@ -3761,10 +3758,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
@@ -3772,7 +3769,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>12</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>15</v>
@@ -3794,7 +3791,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>15</v>
@@ -3805,7 +3802,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>11</v>
@@ -3816,7 +3813,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>7</v>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>7</v>
@@ -3838,7 +3835,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>40</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>44</v>
@@ -3871,10 +3868,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
@@ -3882,10 +3879,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
@@ -3893,7 +3890,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>44</v>
@@ -3904,10 +3901,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>44</v>
@@ -3927,7 +3924,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>44</v>
@@ -3938,10 +3935,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>44</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>44</v>
@@ -3971,18 +3968,18 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>44</v>
@@ -3993,10 +3990,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4004,10 +4001,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -4015,10 +4012,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
@@ -4026,10 +4023,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -4037,10 +4034,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -4048,10 +4045,10 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
@@ -4059,10 +4056,10 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -4070,7 +4067,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>30</v>
@@ -4081,10 +4078,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
@@ -4092,10 +4089,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>30</v>
@@ -4114,7 +4111,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>30</v>
@@ -4125,10 +4122,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
@@ -4136,10 +4133,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -4147,10 +4144,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
@@ -4158,18 +4155,18 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>44</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>44</v>
@@ -4191,10 +4188,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -4202,10 +4199,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -4213,10 +4210,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>12</v>
@@ -4235,10 +4232,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
@@ -4246,7 +4243,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>44</v>
@@ -4257,10 +4254,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
@@ -4268,10 +4265,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
@@ -4279,10 +4276,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
@@ -4290,10 +4287,10 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
@@ -4301,10 +4298,10 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
@@ -4312,10 +4309,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
@@ -4323,10 +4320,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
@@ -4334,10 +4331,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>12</v>
@@ -4356,7 +4353,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>44</v>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>12</v>
@@ -4378,7 +4375,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>12</v>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>12</v>
@@ -4400,7 +4397,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>12</v>
@@ -4411,7 +4408,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>12</v>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>12</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>44</v>
@@ -4445,7 +4442,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>44</v>
@@ -4456,7 +4453,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>44</v>
@@ -4467,10 +4464,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
@@ -4478,10 +4475,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
@@ -4489,7 +4486,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>12</v>
@@ -4500,7 +4497,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>44</v>
@@ -4511,10 +4508,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
@@ -4522,10 +4519,10 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
@@ -4533,10 +4530,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
@@ -4544,10 +4541,10 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
@@ -4555,10 +4552,10 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
@@ -4566,10 +4563,10 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
@@ -4577,10 +4574,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
@@ -4590,7 +4587,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>42</v>
@@ -4603,7 +4600,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>42</v>
@@ -4616,10 +4613,10 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
@@ -4629,10 +4626,10 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
@@ -4642,13 +4639,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="13"/>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>12</v>
@@ -4672,7 +4669,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>5</v>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>44</v>
@@ -4702,7 +4699,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>44</v>
@@ -4717,7 +4714,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>7</v>
@@ -4732,7 +4729,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>15</v>
@@ -4747,7 +4744,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>15</v>
@@ -4762,13 +4759,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C222" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="13"/>
@@ -4777,13 +4774,13 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="13"/>
@@ -4792,7 +4789,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>44</v>
@@ -4807,10 +4804,10 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
@@ -4822,10 +4819,10 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
@@ -4835,7 +4832,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>44</v>
@@ -4848,10 +4845,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
@@ -4861,10 +4858,10 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
@@ -4873,10 +4870,10 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
@@ -4886,7 +4883,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>44</v>
@@ -4899,7 +4896,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>44</v>
@@ -4912,10 +4909,10 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
@@ -4925,10 +4922,10 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
@@ -4938,10 +4935,10 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
@@ -4951,10 +4948,10 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
@@ -4964,7 +4961,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>44</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>44</v>
@@ -4990,10 +4987,10 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
@@ -5003,10 +5000,10 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
@@ -5016,10 +5013,10 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
@@ -5029,10 +5026,10 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
@@ -5042,10 +5039,10 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
@@ -5055,10 +5052,10 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
@@ -5068,10 +5065,10 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
@@ -5081,7 +5078,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>44</v>
@@ -5094,7 +5091,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>44</v>
@@ -5107,7 +5104,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>44</v>
@@ -5120,7 +5117,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>44</v>
@@ -5133,10 +5130,10 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
@@ -5146,10 +5143,10 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
@@ -5159,10 +5156,10 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
@@ -5172,7 +5169,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>44</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>44</v>
@@ -5198,10 +5195,10 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
@@ -5211,7 +5208,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>12</v>
@@ -5224,10 +5221,10 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
@@ -5237,10 +5234,10 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
@@ -5248,10 +5245,10 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
@@ -5259,7 +5256,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>12</v>
@@ -5270,10 +5267,10 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
@@ -5281,7 +5278,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>12</v>
@@ -5292,7 +5289,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>12</v>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>12</v>
@@ -5314,7 +5311,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>12</v>
@@ -5325,7 +5322,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>12</v>
@@ -5336,7 +5333,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>12</v>
@@ -5347,7 +5344,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>12</v>
@@ -5358,7 +5355,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>12</v>
@@ -5369,7 +5366,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>12</v>
@@ -5380,10 +5377,10 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
@@ -5391,10 +5388,10 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
@@ -5402,7 +5399,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>12</v>
@@ -5413,7 +5410,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>12</v>
@@ -5424,10 +5421,10 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
@@ -5435,10 +5432,10 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
@@ -5446,10 +5443,10 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
@@ -5457,10 +5454,10 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
@@ -5468,10 +5465,10 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
@@ -5479,7 +5476,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>44</v>
@@ -5490,7 +5487,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>12</v>
@@ -5501,10 +5498,10 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
@@ -5515,7 +5512,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>12</v>
@@ -5529,7 +5526,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>12</v>
@@ -5543,7 +5540,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>12</v>
@@ -5557,7 +5554,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>12</v>
@@ -5571,10 +5568,10 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>44</v>
@@ -5599,7 +5596,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>44</v>
@@ -5613,10 +5610,10 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>12</v>
@@ -5627,7 +5624,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>12</v>
@@ -5641,7 +5638,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>5</v>
@@ -5655,10 +5652,10 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
@@ -5669,7 +5666,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>44</v>
@@ -5680,7 +5677,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>44</v>
@@ -5691,7 +5688,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>44</v>
@@ -5702,7 +5699,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>44</v>
@@ -5713,7 +5710,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>44</v>
@@ -5724,7 +5721,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>44</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>44</v>
@@ -5746,7 +5743,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>44</v>
@@ -5757,7 +5754,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>44</v>
@@ -5768,7 +5765,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>44</v>
@@ -5779,7 +5776,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>44</v>
@@ -5790,10 +5787,10 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
@@ -5801,10 +5798,10 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>12</v>
@@ -5812,10 +5809,10 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
@@ -5823,10 +5820,10 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
@@ -5834,10 +5831,10 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
@@ -5845,10 +5842,10 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>12</v>
@@ -5856,10 +5853,10 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>12</v>
@@ -5867,10 +5864,10 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>12</v>
@@ -5878,7 +5875,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>5</v>
@@ -5889,10 +5886,10 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>12</v>
@@ -5900,10 +5897,10 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>12</v>
@@ -5914,10 +5911,10 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
@@ -5928,10 +5925,10 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>12</v>
@@ -5942,7 +5939,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>12</v>
@@ -5956,10 +5953,10 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
@@ -5970,10 +5967,10 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>12</v>
@@ -5984,10 +5981,10 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>12</v>
@@ -5998,10 +5995,10 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>12</v>
@@ -6012,10 +6009,10 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>12</v>
@@ -6026,10 +6023,10 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>12</v>
@@ -6040,7 +6037,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>5</v>
@@ -6054,10 +6051,10 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>12</v>
@@ -6068,10 +6065,10 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
@@ -6079,7 +6076,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>44</v>
@@ -6090,10 +6087,10 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>12</v>
@@ -6101,10 +6098,10 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>12</v>
@@ -6112,10 +6109,10 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>12</v>
@@ -6123,7 +6120,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>44</v>
@@ -6134,7 +6131,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>44</v>
@@ -6145,10 +6142,10 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>12</v>
@@ -6156,10 +6153,10 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>12</v>
@@ -6167,21 +6164,21 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>12</v>
@@ -6189,10 +6186,10 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>12</v>
@@ -6200,10 +6197,10 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>12</v>
@@ -6211,10 +6208,10 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>12</v>
@@ -6222,7 +6219,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>44</v>
@@ -6233,10 +6230,10 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>12</v>
@@ -6244,7 +6241,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>44</v>
@@ -6255,10 +6252,10 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>12</v>
@@ -6267,10 +6264,10 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>12</v>
@@ -6279,10 +6276,10 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>12</v>
@@ -6291,10 +6288,10 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>12</v>
@@ -6303,7 +6300,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>44</v>
@@ -6315,10 +6312,10 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>12</v>
@@ -6327,7 +6324,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>5</v>
@@ -6339,7 +6336,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>7</v>
@@ -6351,19 +6348,19 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>12</v>
@@ -6375,7 +6372,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>12</v>
@@ -6387,7 +6384,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>12</v>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>12</v>
@@ -6411,7 +6408,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>12</v>
@@ -6422,7 +6419,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>12</v>
@@ -6433,10 +6430,10 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>12</v>
@@ -6444,7 +6441,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>12</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>5</v>
@@ -6466,7 +6463,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>44</v>
@@ -6477,7 +6474,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>37</v>
@@ -6488,7 +6485,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>26</v>
@@ -6499,7 +6496,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>26</v>
@@ -6510,7 +6507,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>26</v>
@@ -6521,7 +6518,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>26</v>
@@ -6532,10 +6529,10 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>12</v>
@@ -6543,7 +6540,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>12</v>
@@ -6554,10 +6551,10 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>12</v>
@@ -6565,7 +6562,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>44</v>
@@ -6576,7 +6573,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>44</v>
@@ -6587,10 +6584,10 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>12</v>
@@ -6598,10 +6595,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>12</v>
@@ -6609,10 +6606,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>12</v>
@@ -6620,10 +6617,10 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>12</v>
@@ -6631,7 +6628,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>44</v>
@@ -6642,7 +6639,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>44</v>
@@ -6653,21 +6650,21 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>12</v>
@@ -6675,7 +6672,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>15</v>
@@ -6686,10 +6683,10 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>12</v>
@@ -6697,10 +6694,10 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>12</v>
@@ -6708,7 +6705,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>44</v>
@@ -6719,10 +6716,10 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>12</v>
@@ -6730,7 +6727,7 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>44</v>
@@ -6741,7 +6738,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>44</v>
@@ -6752,7 +6749,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>15</v>
@@ -6763,7 +6760,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>44</v>
@@ -6774,7 +6771,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>44</v>
@@ -6785,7 +6782,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>44</v>
@@ -6796,7 +6793,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>44</v>
@@ -6807,10 +6804,10 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>12</v>
@@ -6818,7 +6815,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>44</v>
@@ -6829,7 +6826,7 @@
     </row>
     <row r="395">
       <c r="A395" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>12</v>
@@ -6840,7 +6837,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>12</v>
@@ -6851,10 +6848,10 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>12</v>
@@ -6862,7 +6859,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>44</v>
@@ -6873,10 +6870,10 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>12</v>
@@ -6884,10 +6881,10 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>12</v>
@@ -6895,7 +6892,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>44</v>
@@ -6906,7 +6903,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>44</v>
@@ -6917,7 +6914,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>12</v>
@@ -6928,10 +6925,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>12</v>
@@ -6939,7 +6936,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>44</v>
@@ -6950,7 +6947,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>44</v>
@@ -6961,7 +6958,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>44</v>
@@ -6972,7 +6969,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>44</v>
@@ -6983,7 +6980,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>44</v>
@@ -6994,21 +6991,21 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>12</v>
@@ -7016,7 +7013,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>12</v>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>44</v>
@@ -7038,21 +7035,21 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>12</v>
@@ -7060,7 +7057,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>44</v>
@@ -7071,10 +7068,10 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>12</v>
@@ -7082,10 +7079,10 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>12</v>
@@ -7093,10 +7090,10 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>12</v>
@@ -7104,10 +7101,10 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>12</v>
@@ -7115,10 +7112,10 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>12</v>
@@ -7126,7 +7123,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>44</v>
@@ -7137,7 +7134,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>12</v>
@@ -7148,18 +7145,18 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>44</v>
@@ -7170,7 +7167,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>12</v>
@@ -7181,7 +7178,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>12</v>
@@ -7192,21 +7189,21 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>12</v>
@@ -7214,7 +7211,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>44</v>
@@ -7225,10 +7222,10 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>12</v>
@@ -7236,7 +7233,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>53</v>
@@ -7247,10 +7244,10 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>12</v>
@@ -7261,18 +7258,18 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>44</v>
@@ -7283,10 +7280,10 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>12</v>
@@ -7294,7 +7291,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>12</v>
@@ -7305,10 +7302,10 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>12</v>
@@ -7316,7 +7313,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>15</v>
@@ -7327,10 +7324,10 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>12</v>
@@ -7338,10 +7335,10 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>12</v>
@@ -7349,10 +7346,10 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>12</v>
@@ -7360,7 +7357,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>12</v>
@@ -7371,7 +7368,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>12</v>
@@ -7382,7 +7379,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>12</v>
@@ -7393,10 +7390,10 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>12</v>
@@ -7404,7 +7401,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>12</v>
@@ -7415,10 +7412,10 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>12</v>
@@ -7426,10 +7423,10 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>12</v>
@@ -9666,16 +9663,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -9692,7 +9689,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
@@ -9956,7 +9953,7 @@
         <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -9964,10 +9961,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -9975,10 +9972,10 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -9986,10 +9983,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -9997,18 +9994,18 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -10019,18 +10016,18 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -10041,7 +10038,7 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -10052,7 +10049,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
@@ -10063,7 +10060,7 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
@@ -10074,7 +10071,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>15</v>
@@ -10085,10 +10082,10 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -10096,10 +10093,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -10107,10 +10104,10 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -10118,10 +10115,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -10129,10 +10126,10 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -10140,7 +10137,7 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>58</v>
@@ -10151,10 +10148,10 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -10162,10 +10159,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -10173,10 +10170,10 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -10184,10 +10181,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -10195,10 +10192,10 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -10206,10 +10203,10 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -10217,7 +10214,7 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>44</v>
@@ -10228,10 +10225,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -10239,10 +10236,10 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -10250,7 +10247,7 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>44</v>
@@ -10261,10 +10258,10 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -10272,10 +10269,10 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -10283,10 +10280,10 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -10294,10 +10291,10 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -10305,10 +10302,10 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -10316,10 +10313,10 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -10327,10 +10324,10 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -10338,10 +10335,10 @@
     </row>
     <row r="61">
       <c r="A61" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -10349,10 +10346,10 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>148</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -10360,10 +10357,10 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -10371,10 +10368,10 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -10410,16 +10407,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -10436,7 +10433,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
@@ -10463,10 +10460,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -10474,10 +10471,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -10499,10 +10496,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -10521,10 +10518,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -10532,7 +10529,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>44</v>
@@ -10554,7 +10551,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -10587,13 +10584,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -10609,10 +10606,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -10642,7 +10639,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
@@ -10653,10 +10650,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -10686,7 +10683,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
@@ -10697,10 +10694,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -10708,10 +10705,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -10741,7 +10738,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
@@ -10774,7 +10771,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>44</v>
@@ -10785,7 +10782,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>44</v>
@@ -10821,7 +10818,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -10829,7 +10826,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>44</v>
@@ -10840,10 +10837,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -10851,10 +10848,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -10873,10 +10870,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -10884,21 +10881,21 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -10906,7 +10903,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
@@ -10917,21 +10914,21 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -10939,7 +10936,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>15</v>
@@ -10950,7 +10947,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>44</v>
@@ -10961,10 +10958,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -10972,10 +10969,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -10983,7 +10980,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>44</v>
@@ -11005,10 +11002,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -11027,10 +11024,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -11038,7 +11035,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>44</v>
@@ -11049,10 +11046,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -11060,10 +11057,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -11071,7 +11068,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
@@ -11082,7 +11079,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>44</v>
@@ -11093,10 +11090,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -11104,10 +11101,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -11115,10 +11112,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -11126,10 +11123,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -11148,10 +11145,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -11159,7 +11156,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>30</v>
@@ -11170,10 +11167,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
@@ -11181,10 +11178,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -11192,7 +11189,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>44</v>
@@ -11203,7 +11200,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>30</v>
@@ -11214,10 +11211,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -11225,10 +11222,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -11236,18 +11233,18 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>44</v>
@@ -11258,7 +11255,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>44</v>
@@ -11269,10 +11266,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -11280,10 +11277,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -11291,21 +11288,21 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -11313,7 +11310,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
@@ -11324,21 +11321,21 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -11346,21 +11343,21 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -11368,10 +11365,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -11379,10 +11376,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -11390,10 +11387,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -11401,7 +11398,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>44</v>
@@ -11412,21 +11409,21 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -11434,10 +11431,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -11445,7 +11442,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>5</v>
@@ -11456,7 +11453,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>44</v>
@@ -11467,7 +11464,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>42</v>
@@ -11478,7 +11475,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>11</v>
@@ -11489,10 +11486,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
@@ -11500,7 +11497,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>12</v>
@@ -11511,7 +11508,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>12</v>
@@ -11522,10 +11519,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -11533,7 +11530,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>15</v>
@@ -11544,7 +11541,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>11</v>
@@ -11580,16 +11577,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -11606,7 +11603,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
@@ -11724,7 +11721,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -11779,7 +11776,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
@@ -11790,10 +11787,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -11801,10 +11798,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -11812,7 +11809,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>44</v>
@@ -11834,10 +11831,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -11845,10 +11842,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -11867,10 +11864,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -11911,7 +11908,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
@@ -11922,10 +11919,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -11933,7 +11930,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>44</v>
@@ -11944,10 +11941,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -11955,21 +11952,21 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -11977,21 +11974,21 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -12002,7 +11999,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -12010,10 +12007,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -12021,7 +12018,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
@@ -12032,7 +12029,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>44</v>
@@ -12054,10 +12051,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -12065,7 +12062,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
@@ -12076,7 +12073,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
@@ -12087,10 +12084,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -12098,10 +12095,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -12120,7 +12117,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -12131,10 +12128,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -12142,7 +12139,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>44</v>
@@ -12153,10 +12150,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -12164,10 +12161,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -12175,10 +12172,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -12186,10 +12183,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -12197,7 +12194,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>12</v>
@@ -12208,7 +12205,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>44</v>
@@ -12219,7 +12216,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>44</v>
@@ -12241,7 +12238,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>12</v>
@@ -12252,10 +12249,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -12263,7 +12260,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
@@ -12274,10 +12271,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -12285,7 +12282,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>44</v>
@@ -12296,7 +12293,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>11</v>
@@ -12307,10 +12304,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -12318,10 +12315,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -12329,7 +12326,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
@@ -12340,7 +12337,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
@@ -12351,10 +12348,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -12362,7 +12359,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>44</v>
@@ -12373,10 +12370,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -12384,10 +12381,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -12395,10 +12392,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -12406,10 +12403,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -12417,7 +12414,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>44</v>
@@ -12428,7 +12425,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>44</v>
@@ -12439,10 +12436,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -12450,10 +12447,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -12461,10 +12458,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -12472,10 +12469,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -12483,10 +12480,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -12494,7 +12491,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>12</v>
@@ -12505,10 +12502,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -12516,7 +12513,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>44</v>
@@ -12527,7 +12524,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>44</v>
@@ -12538,7 +12535,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
@@ -12549,7 +12546,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>7</v>
@@ -12560,10 +12557,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -12571,7 +12568,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>12</v>
@@ -12607,16 +12604,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -12633,7 +12630,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
@@ -12751,10 +12748,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -12795,10 +12792,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -12820,7 +12817,7 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -12828,7 +12825,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>44</v>
@@ -12872,7 +12869,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -12883,10 +12880,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -12905,10 +12902,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -12916,13 +12913,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -12938,10 +12935,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -12949,10 +12946,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -12960,10 +12957,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -12982,10 +12979,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -12993,13 +12990,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -13015,10 +13012,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -13026,7 +13023,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
@@ -13037,10 +13034,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -13048,10 +13045,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -13059,7 +13056,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -13070,7 +13067,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
@@ -13081,10 +13078,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -13092,10 +13089,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -13103,10 +13100,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -13114,7 +13111,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -13125,10 +13122,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -13136,7 +13133,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
@@ -13147,10 +13144,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -13158,10 +13155,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -13169,7 +13166,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>44</v>
@@ -13180,10 +13177,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -13202,10 +13199,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -13213,7 +13210,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
@@ -13224,10 +13221,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -13235,10 +13232,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -13246,10 +13243,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -13257,10 +13254,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -13268,7 +13265,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>44</v>
@@ -13279,10 +13276,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -13290,10 +13287,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -13301,21 +13298,21 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -13323,10 +13320,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -13334,10 +13331,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -13345,10 +13342,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -13356,21 +13353,21 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
@@ -13378,10 +13375,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -13389,10 +13386,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -13400,21 +13397,21 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -13422,7 +13419,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
@@ -13433,7 +13430,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>11</v>
@@ -13469,16 +13466,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="25" t="s">
         <v>591</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>593</v>
       </c>
       <c r="E1" s="26">
         <v>44679.0</v>
@@ -13517,7 +13514,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
@@ -13613,7 +13610,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>44</v>
@@ -13624,10 +13621,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -13712,7 +13709,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -13726,7 +13723,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -13734,10 +13731,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -13745,7 +13742,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
@@ -13767,18 +13764,18 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -13789,7 +13786,7 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -13800,10 +13797,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -13811,10 +13808,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -13822,10 +13819,10 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -13833,7 +13830,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -13844,10 +13841,10 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -13855,10 +13852,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -13866,10 +13863,10 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -13877,21 +13874,21 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -13899,7 +13896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
@@ -13910,10 +13907,10 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -13932,7 +13929,7 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>58</v>
@@ -13943,10 +13940,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -13954,7 +13951,7 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -13965,10 +13962,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -13976,10 +13973,10 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>65</v>
+        <v>281</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>12</v>
@@ -13987,10 +13984,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -14009,7 +14006,7 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>44</v>
@@ -14020,10 +14017,10 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -14031,7 +14028,7 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>42</v>
@@ -14042,10 +14039,10 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -14053,18 +14050,18 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -14075,10 +14072,10 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -14086,10 +14083,10 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -14097,7 +14094,7 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>30</v>
@@ -14108,10 +14105,10 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -14119,10 +14116,10 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -14130,10 +14127,10 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -14141,10 +14138,10 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -14152,18 +14149,18 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>12</v>
@@ -14174,7 +14171,7 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
@@ -14185,7 +14182,7 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>44</v>
@@ -14196,10 +14193,10 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -14207,10 +14204,10 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -14218,10 +14215,10 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -14240,7 +14237,7 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>44</v>
@@ -14251,7 +14248,7 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>15</v>
@@ -14262,10 +14259,10 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -14273,21 +14270,21 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -14295,7 +14292,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>7</v>
